--- a/datas/__enums__.xlsx
+++ b/datas/__enums__.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="15615" windowHeight="7560" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -1146,115 +1146,115 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>Quality</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>品质枚举</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="0" t="inlineStr">
         <is>
           <t>白色</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="0" t="inlineStr">
         <is>
           <t>白色品质</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>Blue</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="0" t="inlineStr">
         <is>
           <t>蓝色</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="0" t="inlineStr">
         <is>
           <t>蓝色品质</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>Purple</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="0" t="inlineStr">
         <is>
           <t>紫色</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="0" t="inlineStr">
         <is>
           <t>紫色品质</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>Gold</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="0" t="inlineStr">
         <is>
           <t>金色</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="0" t="inlineStr">
         <is>
           <t>金色品质</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t>Red</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" s="0" t="inlineStr">
         <is>
           <t>红色</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="0" t="inlineStr">
         <is>
           <t>红色品质</t>
         </is>
@@ -1262,75 +1262,75 @@
     </row>
     <row r="9"/>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>RelationshipType</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="0" t="inlineStr">
         <is>
           <t>关系类型</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="0" t="inlineStr">
         <is>
           <t>FRIEND</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" s="0" t="inlineStr">
         <is>
           <t>好友</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="0" t="inlineStr">
         <is>
           <t>好友</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>BESTIE</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="0" t="inlineStr">
         <is>
           <t>闺蜜</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="0" t="inlineStr">
         <is>
           <t>闺蜜</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="0" t="inlineStr">
         <is>
           <t>LOVER</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" s="0" t="inlineStr">
         <is>
           <t>恋人</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" s="0" t="inlineStr">
         <is>
           <t>恋人</t>
         </is>
@@ -1338,77 +1338,891 @@
     </row>
     <row r="13"/>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>GenderType</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="0" t="inlineStr">
         <is>
           <t>性别类型</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" s="0" t="inlineStr">
         <is>
           <t>UNKNOWN</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" s="0" t="inlineStr">
         <is>
           <t>未知</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" s="0" t="inlineStr">
         <is>
           <t>未知</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>MALE</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" s="0" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K15" s="0" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>FEMALE</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" s="0" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" s="0" t="inlineStr">
         <is>
           <t>女</t>
+        </is>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>ActivityType</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>活动类型</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>FARMING</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>种田活动</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>COMPETITION</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>竞赛活动</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>CycleType</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>周期类型</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>单次</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>DAILY</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>每日</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>WEEKLY</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>每周</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>MONTHLY</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>每月</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>INTERVAL</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>固定间隔</t>
+        </is>
+      </c>
+    </row>
+    <row r="26"/>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>ItemCategory</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>道具大类</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>OUTFIT</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>服饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>BUBBLE</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>气泡框</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>种田</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>CURRENCY</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>货币</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>宠物</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>GIFT</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>6</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>礼包</t>
+        </is>
+      </c>
+    </row>
+    <row r="33"/>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>ItemSubCategory</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>道具子类</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>SEED</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t>种子</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>DECOR_ENERGY</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" s="0" t="inlineStr">
+        <is>
+          <t>装饰能量</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>SUIT</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" s="0" t="inlineStr">
+        <is>
+          <t>套装</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>新手初始</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>ExpiryType</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>时效类型</t>
+        </is>
+      </c>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>PERMANENT</t>
+        </is>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="0" t="inlineStr">
+        <is>
+          <t>永久</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="H41" s="0" t="inlineStr">
+        <is>
+          <t>DURATION</t>
+        </is>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="0" t="inlineStr">
+        <is>
+          <t>时长</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>FIXED_TIME</t>
+        </is>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" s="0" t="inlineStr">
+        <is>
+          <t>固定时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>DropType</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>掉落类型</t>
+        </is>
+      </c>
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="0" t="inlineStr">
+        <is>
+          <t>固定产出</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="H46" s="0" t="inlineStr">
+        <is>
+          <t>WEIGHT</t>
+        </is>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" s="0" t="inlineStr">
+        <is>
+          <t>权重随机</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="H47" s="0" t="inlineStr">
+        <is>
+          <t>PROBABILITY</t>
+        </is>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" s="0" t="inlineStr">
+        <is>
+          <t>独立概率</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>StoreType</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>商店类型</t>
+        </is>
+      </c>
+      <c r="H50" s="0" t="inlineStr">
+        <is>
+          <t>EXCHANGE</t>
+        </is>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="0" t="inlineStr">
+        <is>
+          <t>兑换商店</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>RefreshType</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>刷新类型</t>
+        </is>
+      </c>
+      <c r="H53" s="0" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="0" t="inlineStr">
+        <is>
+          <t>不刷新</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>DAILY</t>
+        </is>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="0" t="inlineStr">
+        <is>
+          <t>每日重置</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="H55" s="0" t="inlineStr">
+        <is>
+          <t>WEEKLY</t>
+        </is>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" s="0" t="inlineStr">
+        <is>
+          <t>每周重置</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>INTERVAL</t>
+        </is>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" s="0" t="inlineStr">
+        <is>
+          <t>固定间隔</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>BackpackType</t>
+        </is>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
+        <is>
+          <t>背包类型</t>
+        </is>
+      </c>
+      <c r="H59" s="0" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" s="0" t="inlineStr">
+        <is>
+          <t>通用</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="H60" s="0" t="inlineStr">
+        <is>
+          <t>CLOTHING</t>
+        </is>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" s="0" t="inlineStr">
+        <is>
+          <t>服装</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="H61" s="0" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K61" s="0" t="inlineStr">
+        <is>
+          <t>宠物</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>BroadcastPos</t>
+        </is>
+      </c>
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t>播报位置</t>
+        </is>
+      </c>
+      <c r="H64" s="0" t="inlineStr">
+        <is>
+          <t>TOP_SCROLL</t>
+        </is>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="0" t="inlineStr">
+        <is>
+          <t>顶部滚动</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>FULL_SCREEN_SCROLL</t>
+        </is>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" s="0" t="inlineStr">
+        <is>
+          <t>全屏滚动</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="H66" s="0" t="inlineStr">
+        <is>
+          <t>TOP_MIDDLE_MOVE_FADE</t>
+        </is>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" s="0" t="inlineStr">
+        <is>
+          <t>平移淡入</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="H67" s="0" t="inlineStr">
+        <is>
+          <t>TOP_LOWER_MIDDLE_FIXED</t>
+        </is>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" s="0" t="inlineStr">
+        <is>
+          <t>靠下固定</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="H68" s="0" t="inlineStr">
+        <is>
+          <t>TOP_MIDDLE_FIXED_FADE</t>
+        </is>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" s="0" t="inlineStr">
+        <is>
+          <t>淡入淡出固定</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="H69" s="0" t="inlineStr">
+        <is>
+          <t>CENTER_FIXED</t>
+        </is>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K69" s="0" t="inlineStr">
+        <is>
+          <t>正中间固定</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="H70" s="0" t="inlineStr">
+        <is>
+          <t>BOTTOM_MIDDLE_FIXED</t>
+        </is>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K70" s="0" t="inlineStr">
+        <is>
+          <t>中下方固定</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="H71" s="0" t="inlineStr">
+        <is>
+          <t>CENTER_LARGE_UI_FIXED</t>
+        </is>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K71" s="0" t="inlineStr">
+        <is>
+          <t>正中间大版UI</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="H72" s="0" t="inlineStr">
+        <is>
+          <t>FULL_SCREEN_ANIMATION</t>
+        </is>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K72" s="0" t="inlineStr">
+        <is>
+          <t>全屏动画</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>RoleType</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>角色类型</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>STREAMER</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>主播</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>PLAYER</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>玩家</t>
         </is>
       </c>
     </row>

--- a/datas/__enums__.xlsx
+++ b/datas/__enums__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -1641,15 +1641,15 @@
       </c>
     </row>
     <row r="32">
-      <c r="H32" t="inlineStr">
+      <c r="H32" s="0" t="inlineStr">
         <is>
           <t>GIFT</t>
         </is>
       </c>
-      <c r="J32" t="n">
+      <c r="J32" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K32" s="0" t="inlineStr">
         <is>
           <t>礼包</t>
         </is>
@@ -1732,20 +1732,21 @@
       </c>
     </row>
     <row r="38">
-      <c r="H38" t="inlineStr">
+      <c r="H38" s="0" t="inlineStr">
         <is>
           <t>INITIAL</t>
         </is>
       </c>
-      <c r="J38" t="n">
+      <c r="J38" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K38" s="0" t="inlineStr">
         <is>
           <t>新手初始</t>
         </is>
       </c>
     </row>
+    <row r="39"/>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
@@ -1806,6 +1807,8 @@
         </is>
       </c>
     </row>
+    <row r="43"/>
+    <row r="44"/>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
@@ -1866,6 +1869,8 @@
         </is>
       </c>
     </row>
+    <row r="48"/>
+    <row r="49"/>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
@@ -1896,6 +1901,8 @@
         </is>
       </c>
     </row>
+    <row r="51"/>
+    <row r="52"/>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
@@ -1971,6 +1978,8 @@
         </is>
       </c>
     </row>
+    <row r="57"/>
+    <row r="58"/>
     <row r="59">
       <c r="A59" s="0" t="inlineStr">
         <is>
@@ -2031,6 +2040,8 @@
         </is>
       </c>
     </row>
+    <row r="62"/>
+    <row r="63"/>
     <row r="64">
       <c r="A64" s="0" t="inlineStr">
         <is>
@@ -2181,48 +2192,104 @@
         </is>
       </c>
     </row>
+    <row r="73"/>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="0" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="0" t="inlineStr">
         <is>
           <t>RoleType</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" s="0" t="inlineStr">
         <is>
           <t>角色类型</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>STREAMER</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
+      <c r="H74" s="0" t="inlineStr">
+        <is>
+          <t>ANCHOR</t>
+        </is>
+      </c>
+      <c r="J74" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="K74" s="0" t="inlineStr">
         <is>
           <t>主播</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="H75" t="inlineStr">
+      <c r="H75" s="0" t="inlineStr">
         <is>
           <t>PLAYER</t>
         </is>
       </c>
-      <c r="J75" t="n">
+      <c r="J75" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="K75" s="0" t="inlineStr">
         <is>
           <t>玩家</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>SlotType</t>
+        </is>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>槽位类型</t>
+        </is>
+      </c>
+      <c r="H76" s="0" t="inlineStr">
+        <is>
+          <t>BED</t>
+        </is>
+      </c>
+      <c r="I76" s="0" t="inlineStr">
+        <is>
+          <t>床位</t>
+        </is>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" s="0" t="inlineStr">
+        <is>
+          <t>床位</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="H77" s="0" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="I77" s="0" t="inlineStr">
+        <is>
+          <t>田地</t>
+        </is>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" s="0" t="inlineStr">
+        <is>
+          <t>田地</t>
         </is>
       </c>
     </row>
